--- a/biology/Médecine/Bernardino_Genga/Bernardino_Genga.xlsx
+++ b/biology/Médecine/Bernardino_Genga/Bernardino_Genga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernardino Genga (né en 1620 à Mondolfo dans le duché d'Urbin et mort en 1690 à Rome) est un médecin italien du XVIIe siècle, auteur du premier ouvrage consacré entièrement à l'anatomie chirurgicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernardino Genga pratiquait la chirurgie à l'arcispedale Santo Spirito in Saxia à Rome. C'était un étudiant des textes de médecine classique, et il publia de nombreux travaux d'Hippocrate. Il était également très intéressé par la préparation des spécimens anatomiques, ainsi que par l'anatomie des anciennes sculptures grec et romaine. Ces centres d'intérêt le menèrent à l'Académie de France à Rome, où il enseigna l'anatomie aux artistes.
 En 1672, il publia son œuvre, Anatomia Chirurgica, un livre destiné aux chirurgiens et qui connut de nombreuses rééditions. Un an après sa mort fut publié Anatomia per Uso et Intelligenza del Disegno, qui montre ses préparations anatomiques, peintes par l'artiste Charles Errard (1606-1689), directeur de l'Accademia, et probablement gravées par François Andriot (mort en 1704). Giovanni Maria Lancisi (1654-1720), le médecin du Pape, publia ce travail et en fournit la plupart des commentaires.
